--- a/tools/xlsx/Solar系统协议整理.xlsx
+++ b/tools/xlsx/Solar系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\I-Solar\4 - 产品说明书\1-通讯规约\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27980" windowHeight="16590"/>
+    <workbookView xWindow="3480" yWindow="2940" windowWidth="27980" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,20 @@
     <sheet name="FaultCode解析" sheetId="5" r:id="rId5"/>
     <sheet name="其他说明" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="478">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,23 +1598,55 @@
   <si>
     <t>Uca_Uc</t>
   </si>
+  <si>
+    <t>CustomPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1660,7 +1700,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1669,7 +1709,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1678,7 +1718,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1707,51 +1747,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1759,24 +1799,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1785,7 +1825,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1793,17 +1833,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1813,7 +1853,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1821,12 +1861,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,18 +1875,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,7 +1896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,6 +2044,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2054,7 +2097,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2070,7 +2113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2112,12 +2155,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2147,12 +2190,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2356,32 +2399,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" customWidth="1"/>
-    <col min="11" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="15.26953125" customWidth="1"/>
-    <col min="14" max="14" width="8.36328125" customWidth="1"/>
-    <col min="15" max="15" width="35.90625" customWidth="1"/>
-    <col min="16" max="16" width="26.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2431,142 +2474,96 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="51"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="51"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="38">
-        <v>4949</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="38">
-        <v>4951</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="38">
-        <v>4999</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4">
-        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>463</v>
@@ -2575,40 +2572,40 @@
         <v>21</v>
       </c>
       <c r="G5" s="38">
-        <v>5000</v>
+        <v>4949</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="45.5" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>463</v>
@@ -2617,10 +2614,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="38">
-        <v>5001</v>
+        <v>4951</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2631,35 +2628,35 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>93</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="38">
-        <v>5002</v>
+        <v>4999</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -2667,7 +2664,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -2675,78 +2672,76 @@
       <c r="M7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="38">
-        <v>5003</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="38">
-        <v>5005</v>
+        <v>5001</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2757,26 +2752,26 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>466</v>
@@ -2785,10 +2780,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="38">
-        <v>5007</v>
+        <v>5002</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2802,35 +2797,35 @@
         <v>152</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="38">
-        <v>5008</v>
+        <v>5003</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2841,36 +2836,38 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="38">
-        <v>5009</v>
+        <v>5005</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2881,36 +2878,38 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="19.5" customHeight="1">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="38">
-        <v>5010</v>
+        <v>5007</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2924,32 +2923,32 @@
         <v>152</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="38">
-        <v>5011</v>
+        <v>5008</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
@@ -2957,7 +2956,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2965,33 +2964,31 @@
       <c r="M14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="38">
-        <v>5012</v>
+        <v>5009</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
@@ -2999,7 +2996,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -3007,24 +3004,22 @@
       <c r="M15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>464</v>
@@ -3033,7 +3028,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="38">
-        <v>5013</v>
+        <v>5010</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
@@ -3050,32 +3045,32 @@
         <v>152</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="38">
-        <v>5014</v>
+        <v>5011</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
@@ -3083,7 +3078,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -3091,31 +3086,33 @@
       <c r="M17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="38">
-        <v>5015</v>
+        <v>5012</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -3123,7 +3120,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -3131,22 +3128,24 @@
       <c r="M18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>464</v>
@@ -3155,49 +3154,49 @@
         <v>21</v>
       </c>
       <c r="G19" s="38">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="28">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>104</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="38">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -3205,7 +3204,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -3213,35 +3212,31 @@
       <c r="M20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="43" customHeight="1">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>468</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="38">
-        <v>5019</v>
+        <v>5015</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
@@ -3249,7 +3244,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -3257,26 +3252,22 @@
       <c r="M21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="47.5" customHeight="1">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>464</v>
@@ -3285,42 +3276,40 @@
         <v>21</v>
       </c>
       <c r="G22" s="38">
-        <v>5020</v>
+        <v>5016</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>467</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>464</v>
@@ -3329,7 +3318,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="38">
-        <v>5021</v>
+        <v>5018</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
@@ -3346,23 +3335,25 @@
         <v>152</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>464</v>
@@ -3371,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="38">
-        <v>5022</v>
+        <v>5019</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
@@ -3388,23 +3379,25 @@
         <v>152</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>464</v>
@@ -3413,7 +3406,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="38">
-        <v>5023</v>
+        <v>5020</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
@@ -3430,152 +3423,160 @@
         <v>152</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="38">
-        <v>5024</v>
+        <v>5021</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N26" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="38">
-        <v>5026</v>
+        <v>5022</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N27" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="38">
-        <v>5028</v>
+        <v>5023</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N28" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="38">
-        <v>5030</v>
+        <v>5024</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>26</v>
@@ -3583,7 +3584,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -3591,41 +3592,39 @@
       <c r="M29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="38">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -3633,64 +3632,62 @@
       <c r="M30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>460</v>
-      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>461</v>
+        <v>122</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="38">
-        <v>5034</v>
+        <v>5028</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>464</v>
@@ -3699,40 +3696,40 @@
         <v>21</v>
       </c>
       <c r="G32" s="38">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>462</v>
+        <v>111</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>464</v>
@@ -3741,40 +3738,40 @@
         <v>21</v>
       </c>
       <c r="G33" s="38">
-        <v>5036</v>
+        <v>5032</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="190" customHeight="1">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>464</v>
@@ -3783,15 +3780,15 @@
         <v>21</v>
       </c>
       <c r="G34" s="38">
-        <v>5037</v>
+        <v>5034</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -3800,25 +3797,21 @@
         <v>152</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>464</v>
@@ -3827,7 +3820,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="38">
-        <v>5038</v>
+        <v>5035</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
@@ -3835,7 +3828,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
@@ -3843,22 +3836,24 @@
       <c r="M35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>464</v>
@@ -3867,7 +3862,7 @@
         <v>21</v>
       </c>
       <c r="G36" s="38">
-        <v>5039</v>
+        <v>5036</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>11</v>
@@ -3875,7 +3870,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="4">
         <v>0</v>
@@ -3883,22 +3878,24 @@
       <c r="M36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="4"/>
+      <c r="N36" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>464</v>
@@ -3907,7 +3904,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="38">
-        <v>5040</v>
+        <v>5037</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
@@ -3924,21 +3921,25 @@
         <v>152</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>464</v>
@@ -3947,7 +3948,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="38">
-        <v>5041</v>
+        <v>5038</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>11</v>
@@ -3967,18 +3968,18 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>464</v>
@@ -3987,7 +3988,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="38">
-        <v>5042</v>
+        <v>5039</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>11</v>
@@ -4007,18 +4008,18 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>464</v>
@@ -4027,7 +4028,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="38">
-        <v>5043</v>
+        <v>5040</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>11</v>
@@ -4047,18 +4048,18 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>464</v>
@@ -4067,7 +4068,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="38">
-        <v>5044</v>
+        <v>5041</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>11</v>
@@ -4084,32 +4085,30 @@
         <v>152</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
-        <v>450</v>
-      </c>
+      <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="38">
-        <v>5045</v>
+        <v>5042</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>11</v>
@@ -4129,30 +4128,30 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="38">
-        <v>5046</v>
+        <v>5043</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4163,24 +4162,24 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>64</v>
+        <v>166</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>464</v>
@@ -4189,7 +4188,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="38">
-        <v>5048</v>
+        <v>5044</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
@@ -4197,7 +4196,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -4205,23 +4204,148 @@
       <c r="M44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="38">
+        <v>5045</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="38">
+        <v>5046</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="38">
+        <v>5048</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5:H1048576">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64,U32,I32"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E47">
       <formula1>"hide,num,line,bar,pie"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4237,16 +4361,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
@@ -4281,7 +4405,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
@@ -4299,7 +4423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -4317,7 +4441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -4346,25 +4470,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4521,7 @@
       </c>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4422,11 +4546,11 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4451,9 +4575,9 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4478,9 +4602,9 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4505,9 +4629,9 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4532,9 +4656,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.5" customHeight="1">
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4559,9 +4683,9 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" ht="27">
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -4588,11 +4712,11 @@
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27">
+    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4617,9 +4741,9 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" ht="54">
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -4646,9 +4770,9 @@
         <v>1E-3</v>
       </c>
       <c r="J10" s="34"/>
-      <c r="K10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" ht="81">
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -4675,11 +4799,11 @@
         <v>79</v>
       </c>
       <c r="J11" s="35"/>
-      <c r="K11" s="52" t="s">
+      <c r="K11" s="53" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="40.5">
+    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -4706,9 +4830,9 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="121.5">
+      <c r="K12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -4735,9 +4859,9 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" ht="40.5">
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -4764,9 +4888,9 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -4793,7 +4917,7 @@
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="54"/>
+      <c r="K15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4820,17 +4944,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4855,6 +4979,7 @@
       <c r="H1" s="50"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4863,22 +4988,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="34.6328125" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="5" width="71.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="11" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>435</v>
       </c>
@@ -4895,7 +5020,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72.5">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -4912,7 +5037,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -4930,7 +5055,7 @@
       </c>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="87">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -4947,7 +5072,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -4964,7 +5089,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -4981,7 +5106,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -4996,7 +5121,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -5013,7 +5138,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -5030,7 +5155,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="116">
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -5047,7 +5172,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -5064,7 +5189,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="58">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -5081,7 +5206,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -5098,7 +5223,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.5">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -5115,7 +5240,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72.5">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -5132,7 +5257,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -5149,7 +5274,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="58">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -5166,7 +5291,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>19</v>
       </c>
@@ -5183,7 +5308,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72.5">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -5200,7 +5325,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>21</v>
       </c>
@@ -5217,7 +5342,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -5234,7 +5359,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>23</v>
       </c>
@@ -5251,7 +5376,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.5">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -5268,7 +5393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -5285,7 +5410,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>26</v>
       </c>
@@ -5302,7 +5427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="87">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>36</v>
       </c>
@@ -5319,7 +5444,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31" customHeight="1">
+    <row r="27" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>37</v>
       </c>
@@ -5336,7 +5461,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>38</v>
       </c>
@@ -5353,7 +5478,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="130.5">
+    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>39</v>
       </c>
@@ -5370,7 +5495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.5">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>40</v>
       </c>
@@ -5387,7 +5512,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -5404,7 +5529,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>42</v>
       </c>
@@ -5421,7 +5546,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" customHeight="1">
+    <row r="33" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43</v>
       </c>
@@ -5438,7 +5563,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44</v>
       </c>
@@ -5455,7 +5580,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -5472,7 +5597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41.5" customHeight="1">
+    <row r="36" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -5489,7 +5614,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -5506,7 +5631,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -5523,7 +5648,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>51</v>
       </c>
@@ -5540,7 +5665,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>70</v>
       </c>
@@ -5557,7 +5682,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>71</v>
       </c>
@@ -5574,7 +5699,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>72</v>
       </c>
@@ -5591,7 +5716,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>74</v>
       </c>
@@ -5608,7 +5733,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>75</v>
       </c>
@@ -5625,7 +5750,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="58">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>76</v>
       </c>
@@ -5642,7 +5767,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="72.5">
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>78</v>
       </c>
@@ -5659,7 +5784,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72.5">
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>79</v>
       </c>
@@ -5676,7 +5801,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="72.5">
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>80</v>
       </c>
@@ -5693,7 +5818,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72.5">
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>81</v>
       </c>
@@ -5710,7 +5835,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>87</v>
       </c>
@@ -5727,7 +5852,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>88</v>
       </c>
@@ -5744,7 +5869,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>89</v>
       </c>
@@ -5761,7 +5886,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>532</v>
       </c>
@@ -5778,7 +5903,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>533</v>
       </c>
@@ -5795,7 +5920,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>534</v>
       </c>
@@ -5812,7 +5937,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>535</v>
       </c>
@@ -5829,7 +5954,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>536</v>
       </c>
@@ -5846,7 +5971,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>537</v>
       </c>
@@ -5863,7 +5988,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>538</v>
       </c>
@@ -5880,7 +6005,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>539</v>
       </c>
@@ -5897,7 +6022,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>540</v>
       </c>
@@ -5914,7 +6039,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>541</v>
       </c>
@@ -5931,7 +6056,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>542</v>
       </c>
@@ -5948,7 +6073,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>543</v>
       </c>
@@ -5965,7 +6090,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>544</v>
       </c>
@@ -5982,7 +6107,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>545</v>
       </c>
@@ -5999,7 +6124,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>546</v>
       </c>
@@ -6016,7 +6141,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>547</v>
       </c>
@@ -6033,7 +6158,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="101.5">
+    <row r="69" spans="1:5" ht="105" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>548</v>
       </c>
@@ -6050,7 +6175,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>549</v>
       </c>
@@ -6067,7 +6192,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>550</v>
       </c>
@@ -6084,7 +6209,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>551</v>
       </c>
@@ -6101,7 +6226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>552</v>
       </c>
@@ -6118,7 +6243,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>553</v>
       </c>
@@ -6135,7 +6260,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>554</v>
       </c>
@@ -6152,7 +6277,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>555</v>
       </c>
@@ -6169,7 +6294,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>556</v>
       </c>
@@ -6186,7 +6311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>557</v>
       </c>
@@ -6203,7 +6328,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>558</v>
       </c>
@@ -6220,7 +6345,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>559</v>
       </c>
@@ -6237,7 +6362,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>560</v>
       </c>
@@ -6254,7 +6379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>561</v>
       </c>
@@ -6271,7 +6396,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>562</v>
       </c>
@@ -6288,7 +6413,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>563</v>
       </c>
@@ -6306,6 +6431,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6318,183 +6444,184 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K13"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools/xlsx/Solar系统协议整理.xlsx
+++ b/tools/xlsx/Solar系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\I-Solar\4 - 产品说明书\1-通讯规约\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2940" windowWidth="27980" windowHeight="16600"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27980" windowHeight="16590"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,12 @@
     <sheet name="FaultCode解析" sheetId="5" r:id="rId5"/>
     <sheet name="其他说明" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="470">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1598,55 +1590,23 @@
   <si>
     <t>Uca_Uc</t>
   </si>
-  <si>
-    <t>CustomPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kWh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1700,7 +1660,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1709,7 +1669,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1718,7 +1678,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1747,51 +1707,51 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1799,24 +1759,24 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1825,7 +1785,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1833,17 +1793,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1853,7 +1813,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1861,12 +1821,12 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,18 +1835,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2044,9 +2004,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2097,7 +2054,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2113,7 +2070,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2155,12 +2112,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2190,12 +2147,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2399,32 +2356,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="37" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="35.83203125" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" customWidth="1"/>
+    <col min="11" max="12" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="8.36328125" customWidth="1"/>
+    <col min="15" max="15" width="35.90625" customWidth="1"/>
+    <col min="16" max="16" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2474,138 +2431,184 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="51"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="51"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="51"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="38">
+        <v>4949</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="38">
+        <v>4951</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="38">
+        <v>4999</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="38">
-        <v>4949</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="45.5" customHeight="1">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>463</v>
@@ -2614,10 +2617,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="38">
-        <v>4951</v>
+        <v>5001</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2628,35 +2631,35 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="38">
-        <v>4999</v>
+        <v>5002</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
@@ -2664,7 +2667,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -2672,76 +2675,78 @@
       <c r="M7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="38">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="38">
-        <v>5001</v>
+        <v>5005</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2752,26 +2757,26 @@
         <v>0</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>466</v>
@@ -2780,10 +2785,10 @@
         <v>21</v>
       </c>
       <c r="G10" s="38">
-        <v>5002</v>
+        <v>5007</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2797,35 +2802,35 @@
         <v>152</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="24" customHeight="1">
       <c r="A11" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="38">
-        <v>5003</v>
+        <v>5008</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2836,38 +2841,36 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="24" customHeight="1">
       <c r="A12" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="38">
-        <v>5005</v>
+        <v>5009</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2878,38 +2881,36 @@
         <v>0</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="38">
-        <v>5007</v>
+        <v>5010</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2923,32 +2924,32 @@
         <v>152</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="38">
-        <v>5008</v>
+        <v>5011</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
@@ -2956,7 +2957,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -2964,31 +2965,33 @@
       <c r="M14" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="16.5" customHeight="1">
       <c r="A15" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="38">
-        <v>5009</v>
+        <v>5012</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
@@ -2996,7 +2999,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -3004,22 +3007,24 @@
       <c r="M15" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>464</v>
@@ -3028,7 +3033,7 @@
         <v>21</v>
       </c>
       <c r="G16" s="38">
-        <v>5010</v>
+        <v>5013</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
@@ -3045,32 +3050,32 @@
         <v>152</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="38">
-        <v>5011</v>
+        <v>5014</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
@@ -3078,7 +3083,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -3086,33 +3091,31 @@
       <c r="M17" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="38">
-        <v>5012</v>
+        <v>5015</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
@@ -3120,7 +3123,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -3128,24 +3131,22 @@
       <c r="M18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>464</v>
@@ -3154,49 +3155,49 @@
         <v>21</v>
       </c>
       <c r="G19" s="38">
-        <v>5013</v>
+        <v>5016</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="28">
       <c r="A20" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>118</v>
+        <v>467</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="38">
-        <v>5014</v>
+        <v>5018</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
@@ -3204,7 +3205,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -3212,31 +3213,35 @@
       <c r="M20" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="43" customHeight="1">
       <c r="A21" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>468</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="38">
-        <v>5015</v>
+        <v>5019</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
@@ -3244,7 +3249,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -3252,22 +3257,26 @@
       <c r="M21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="47.5" customHeight="1">
       <c r="A22" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>464</v>
@@ -3276,40 +3285,42 @@
         <v>21</v>
       </c>
       <c r="G22" s="38">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>464</v>
@@ -3318,7 +3329,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="38">
-        <v>5018</v>
+        <v>5021</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
@@ -3335,25 +3346,23 @@
         <v>152</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>468</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>464</v>
@@ -3362,7 +3371,7 @@
         <v>21</v>
       </c>
       <c r="G24" s="38">
-        <v>5019</v>
+        <v>5022</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
@@ -3379,25 +3388,23 @@
         <v>152</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>469</v>
+        <v>109</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>464</v>
@@ -3406,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="G25" s="38">
-        <v>5020</v>
+        <v>5023</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
@@ -3423,160 +3430,152 @@
         <v>152</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="38">
-        <v>5021</v>
+        <v>5024</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="38">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="38">
-        <v>5023</v>
+        <v>5028</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="38">
-        <v>5024</v>
+        <v>5030</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>26</v>
@@ -3584,7 +3583,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -3592,39 +3591,41 @@
       <c r="M29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="38">
-        <v>5026</v>
+        <v>5032</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -3632,62 +3633,64 @@
       <c r="M30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>122</v>
+        <v>461</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="38">
-        <v>5028</v>
+        <v>5034</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>464</v>
@@ -3696,40 +3699,40 @@
         <v>21</v>
       </c>
       <c r="G32" s="38">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>462</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>464</v>
@@ -3738,40 +3741,40 @@
         <v>21</v>
       </c>
       <c r="G33" s="38">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>460</v>
+        <v>58</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="190" customHeight="1">
       <c r="A34" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>461</v>
+        <v>168</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>464</v>
@@ -3780,15 +3783,15 @@
         <v>21</v>
       </c>
       <c r="G34" s="38">
-        <v>5034</v>
+        <v>5037</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -3797,21 +3800,25 @@
         <v>152</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>464</v>
@@ -3820,7 +3827,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="38">
-        <v>5035</v>
+        <v>5038</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
@@ -3828,7 +3835,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
@@ -3836,24 +3843,22 @@
       <c r="M35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>462</v>
+        <v>155</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>464</v>
@@ -3862,7 +3867,7 @@
         <v>21</v>
       </c>
       <c r="G36" s="38">
-        <v>5036</v>
+        <v>5039</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>11</v>
@@ -3870,7 +3875,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
         <v>0</v>
@@ -3878,24 +3883,22 @@
       <c r="M36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>464</v>
@@ -3904,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="38">
-        <v>5037</v>
+        <v>5040</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
@@ -3921,25 +3924,21 @@
         <v>152</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>464</v>
@@ -3948,7 +3947,7 @@
         <v>21</v>
       </c>
       <c r="G38" s="38">
-        <v>5038</v>
+        <v>5041</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>11</v>
@@ -3968,18 +3967,18 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>464</v>
@@ -3988,7 +3987,7 @@
         <v>21</v>
       </c>
       <c r="G39" s="38">
-        <v>5039</v>
+        <v>5042</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>11</v>
@@ -4008,18 +4007,18 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>464</v>
@@ -4028,7 +4027,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="38">
-        <v>5040</v>
+        <v>5043</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>11</v>
@@ -4048,18 +4047,18 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>464</v>
@@ -4068,7 +4067,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="38">
-        <v>5041</v>
+        <v>5044</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>11</v>
@@ -4085,30 +4084,32 @@
         <v>152</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>450</v>
+      </c>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="38">
-        <v>5042</v>
+        <v>5045</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>11</v>
@@ -4128,30 +4129,30 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="38">
-        <v>5043</v>
+        <v>5046</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4162,24 +4163,24 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>165</v>
+        <v>113</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>464</v>
@@ -4188,7 +4189,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="38">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
@@ -4196,7 +4197,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -4204,148 +4205,23 @@
       <c r="M44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
-        <v>450</v>
-      </c>
+      <c r="N44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="4"/>
       <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>41</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="38">
-        <v>5045</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="38">
-        <v>5046</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>43</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="38">
-        <v>5048</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64,U32,I32"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E44">
       <formula1>"hide,num,line,bar,pie"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
-      <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4361,16 +4237,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
@@ -4387,7 +4263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
@@ -4405,7 +4281,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
@@ -4423,7 +4299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -4441,7 +4317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -4470,25 +4346,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4521,7 +4397,7 @@
       </c>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -4546,11 +4422,11 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -4575,9 +4451,9 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -4602,9 +4478,9 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -4629,9 +4505,9 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="52"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4656,9 +4532,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="21.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -4683,9 +4559,9 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="52"/>
-    </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="27">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -4712,11 +4588,11 @@
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="27">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -4741,9 +4617,9 @@
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.15">
+      <c r="K9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" ht="54">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -4770,9 +4646,9 @@
         <v>1E-3</v>
       </c>
       <c r="J10" s="34"/>
-      <c r="K10" s="58"/>
-    </row>
-    <row r="11" spans="1:11" ht="70" x14ac:dyDescent="0.15">
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" ht="81">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -4799,11 +4675,11 @@
         <v>79</v>
       </c>
       <c r="J11" s="35"/>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="52" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="40.5">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -4830,9 +4706,9 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="35"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" ht="126" x14ac:dyDescent="0.15">
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="121.5">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -4859,9 +4735,9 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.15">
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" ht="40.5">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -4888,9 +4764,9 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -4917,7 +4793,7 @@
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4944,17 +4820,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +4855,6 @@
       <c r="H1" s="50"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4988,22 +4863,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="71.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="11" max="12" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="34.6328125" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="71.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="8" t="s">
         <v>435</v>
       </c>
@@ -5020,7 +4895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="72.5">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -5037,7 +4912,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="29">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -5055,7 +4930,7 @@
       </c>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="87">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -5072,7 +4947,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -5089,7 +4964,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="22.5" customHeight="1">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -5106,7 +4981,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -5121,7 +4996,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -5138,7 +5013,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -5155,7 +5030,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="116">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -5172,7 +5047,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -5189,7 +5064,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="58">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -5206,7 +5081,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="29">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -5223,7 +5098,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="43.5">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -5240,7 +5115,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="72.5">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -5257,7 +5132,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -5274,7 +5149,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="58">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -5291,7 +5166,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="72.5">
       <c r="A18" s="3">
         <v>19</v>
       </c>
@@ -5308,7 +5183,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="72.5">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -5325,7 +5200,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>21</v>
       </c>
@@ -5342,7 +5217,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -5359,7 +5234,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="29">
       <c r="A22" s="3">
         <v>23</v>
       </c>
@@ -5376,7 +5251,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="43.5">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -5393,7 +5268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="29">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -5410,7 +5285,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>26</v>
       </c>
@@ -5427,7 +5302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="87">
       <c r="A26" s="3">
         <v>36</v>
       </c>
@@ -5444,7 +5319,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="31" customHeight="1">
       <c r="A27" s="3">
         <v>37</v>
       </c>
@@ -5461,7 +5336,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="29">
       <c r="A28" s="3">
         <v>38</v>
       </c>
@@ -5478,7 +5353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="135" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="130.5">
       <c r="A29" s="3">
         <v>39</v>
       </c>
@@ -5495,7 +5370,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="43.5">
       <c r="A30" s="3">
         <v>40</v>
       </c>
@@ -5512,7 +5387,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="29">
       <c r="A31" s="3">
         <v>41</v>
       </c>
@@ -5529,7 +5404,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="29">
       <c r="A32" s="3">
         <v>42</v>
       </c>
@@ -5546,7 +5421,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="51" customHeight="1">
       <c r="A33" s="3">
         <v>43</v>
       </c>
@@ -5563,7 +5438,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>44</v>
       </c>
@@ -5580,7 +5455,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="29">
       <c r="A35" s="3">
         <v>47</v>
       </c>
@@ -5597,7 +5472,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="41.5" customHeight="1">
       <c r="A36" s="3">
         <v>48</v>
       </c>
@@ -5614,7 +5489,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="3">
         <v>49</v>
       </c>
@@ -5631,7 +5506,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="3">
         <v>50</v>
       </c>
@@ -5648,7 +5523,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>51</v>
       </c>
@@ -5665,7 +5540,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="29">
       <c r="A40" s="3">
         <v>70</v>
       </c>
@@ -5682,7 +5557,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>71</v>
       </c>
@@ -5699,7 +5574,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>72</v>
       </c>
@@ -5716,7 +5591,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="3">
         <v>74</v>
       </c>
@@ -5733,7 +5608,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="29">
       <c r="A44" s="3">
         <v>75</v>
       </c>
@@ -5750,7 +5625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="58">
       <c r="A45" s="3">
         <v>76</v>
       </c>
@@ -5767,7 +5642,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="72.5">
       <c r="A46" s="3">
         <v>78</v>
       </c>
@@ -5784,7 +5659,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="72.5">
       <c r="A47" s="3">
         <v>79</v>
       </c>
@@ -5801,7 +5676,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="72.5">
       <c r="A48" s="3">
         <v>80</v>
       </c>
@@ -5818,7 +5693,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="72.5">
       <c r="A49" s="3">
         <v>81</v>
       </c>
@@ -5835,7 +5710,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="29">
       <c r="A50" s="3">
         <v>87</v>
       </c>
@@ -5852,7 +5727,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="29">
       <c r="A51" s="3">
         <v>88</v>
       </c>
@@ -5869,7 +5744,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3">
         <v>89</v>
       </c>
@@ -5886,7 +5761,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3">
         <v>532</v>
       </c>
@@ -5903,7 +5778,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3">
         <v>533</v>
       </c>
@@ -5920,7 +5795,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3">
         <v>534</v>
       </c>
@@ -5937,7 +5812,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="3">
         <v>535</v>
       </c>
@@ -5954,7 +5829,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="3">
         <v>536</v>
       </c>
@@ -5971,7 +5846,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3">
         <v>537</v>
       </c>
@@ -5988,7 +5863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="3">
         <v>538</v>
       </c>
@@ -6005,7 +5880,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="3">
         <v>539</v>
       </c>
@@ -6022,7 +5897,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="3">
         <v>540</v>
       </c>
@@ -6039,7 +5914,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="3">
         <v>541</v>
       </c>
@@ -6056,7 +5931,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="3">
         <v>542</v>
       </c>
@@ -6073,7 +5948,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="3">
         <v>543</v>
       </c>
@@ -6090,7 +5965,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="3">
         <v>544</v>
       </c>
@@ -6107,7 +5982,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="3">
         <v>545</v>
       </c>
@@ -6124,7 +5999,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="3">
         <v>546</v>
       </c>
@@ -6141,7 +6016,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="3">
         <v>547</v>
       </c>
@@ -6158,7 +6033,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="105" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="101.5">
       <c r="A69" s="3">
         <v>548</v>
       </c>
@@ -6175,7 +6050,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="3">
         <v>549</v>
       </c>
@@ -6192,7 +6067,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="3">
         <v>550</v>
       </c>
@@ -6209,7 +6084,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="3">
         <v>551</v>
       </c>
@@ -6226,7 +6101,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="3">
         <v>552</v>
       </c>
@@ -6243,7 +6118,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="3">
         <v>553</v>
       </c>
@@ -6260,7 +6135,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="3">
         <v>554</v>
       </c>
@@ -6277,7 +6152,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="3">
         <v>555</v>
       </c>
@@ -6294,7 +6169,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="3">
         <v>556</v>
       </c>
@@ -6311,7 +6186,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="3">
         <v>557</v>
       </c>
@@ -6328,7 +6203,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="3">
         <v>558</v>
       </c>
@@ -6345,7 +6220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="3">
         <v>559</v>
       </c>
@@ -6362,7 +6237,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="3">
         <v>560</v>
       </c>
@@ -6379,7 +6254,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="3">
         <v>561</v>
       </c>
@@ -6396,7 +6271,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="3">
         <v>562</v>
       </c>
@@ -6413,7 +6288,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="3">
         <v>563</v>
       </c>
@@ -6431,7 +6306,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6444,184 +6318,183 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-    </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>